--- a/biology/Zoologie/Éric_Demay/Éric_Demay.xlsx
+++ b/biology/Zoologie/Éric_Demay/Éric_Demay.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89ric_Demay</t>
+          <t>Éric_Demay</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Éric Demay (né à Toulouse en 1974) est un scientifique français spécialiste de cétologie, fondateur et président de  l'Observatoire Dolphy  de 1992 à 1995, pour l'observation et la protection du dauphin femelle Dolphy, et du groupement TURSIOPS depuis 1993. Il travaille avec les dauphins depuis ses premières rencontres en 1991 avec les cétacés de Bunbury en Australie. Il est l'auteur de plusieurs ouvrages sur les dauphins et les baleines. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89ric_Demay</t>
+          <t>Éric_Demay</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C’est sur la côte ouest de l’Australie que tout commence. Sa relation privilégiée avec les dauphins sauvages lui donne l’occasion de travailler comme soigneur au Dolphin Discovery Centre de Bunbury. Il s’occupe alors tout particulièrement de la femelle « Sarana » qui perd prématurément son premier delphineau. Cette femelle lui avait présenté son nouveau-né juste après sa naissance. Ce premier voyage en Australie le mène ensuite à Monkey Mia où il assiste les rangers lors des séances de nourrissages, et à Coffs Harbour où il est employé pour divertir et soigner les cétacés. 
 Il rentre ensuite en France et travaille entre 1992 et 1995 pour le groupe scientifique GECEM (Groupe d’Études des Cétacés de Méditerranée) en qualité de chargé d’étude pour le suivi, la protection et l’étude du dauphin « Dolphy » à Collioure. Il vit 24 /24 h avec ce dauphin pendant presque trois années, le surveillant et obtenant à son contact de multiples renseignements sur les dauphins dits  ambassadeurs. Il est à l'origine du premier texte de loi interdisant de toucher un dauphin sauvage. À cette époque, la seule loi existante était proposée par le ministère des Transports mais ne spécifiait pas les règles éthiques et sanitaires vis-à-vis des dauphins. 
